--- a/data/spring-kafka-microservices/ms-orders_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-orders_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="90">
   <si>
     <t>Class Name</t>
   </si>
@@ -196,24 +198,24 @@
     <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>kafkaTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>java.util.concurrent.atomic.AtomicLong</t>
   </si>
   <si>
-    <t>kafkaTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
@@ -248,6 +250,48 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1255,6 +1299,264 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D3"/>
@@ -1407,13 +1709,13 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-orders_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-orders_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="95">
   <si>
     <t>Class Name</t>
   </si>
@@ -192,30 +192,30 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.atomic.AtomicLong</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>kafkaTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>kafkaStreamsFactory</t>
   </si>
   <si>
     <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>kafkaTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.atomic.AtomicLong</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
@@ -255,43 +255,58 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean)</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>OrderApplicationTests()</t>
+  </si>
+  <si>
+    <t>OrderServiceImpl()</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>KafkaConfig(com.zatribune.spring.ecommerce.orders.service.OrderService)</t>
+  </si>
+  <si>
+    <t>OrderApplication()</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1417,37 +1432,37 @@
         <v>85</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>79</v>
@@ -1455,35 +1470,35 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -1491,10 +1506,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -1502,10 +1517,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -1513,10 +1528,10 @@
         <v>30</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1524,10 +1539,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -1535,21 +1550,76 @@
         <v>30</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B20" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>87</v>
+      <c r="C20" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1695,13 +1765,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1709,13 +1779,13 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-orders_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-orders_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="94">
   <si>
     <t>Class Name</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean)</t>
@@ -1432,7 +1429,7 @@
         <v>85</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -1440,10 +1437,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -1473,10 +1470,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1495,10 +1492,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1542,7 +1539,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -1564,7 +1561,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1575,7 +1572,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -1586,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -1594,7 +1591,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>82</v>
@@ -1616,10 +1613,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-orders_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-orders_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="94">
   <si>
     <t>Class Name</t>
   </si>
@@ -105,15 +105,21 @@
     <t>com.zatribune.spring.ecommerce.orders.OrderApplicationTests</t>
   </si>
   <si>
+    <t>OrderApplicationTests()</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>contextLoads()</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>com.zatribune.spring.ecommerce.orders.service.OrderServiceImpl</t>
   </si>
   <si>
+    <t>OrderServiceImpl()</t>
+  </si>
+  <si>
     <t>com.zatribune.spring.ecommerce.orders.config.KafkaConfig</t>
   </si>
   <si>
@@ -141,6 +147,9 @@
     <t>paymentTopic()</t>
   </si>
   <si>
+    <t>KafkaConfig(com.zatribune.spring.ecommerce.orders.service.OrderService)</t>
+  </si>
+  <si>
     <t>lambda$table$1(java.lang.Long, domain.Order)</t>
   </si>
   <si>
@@ -159,6 +168,9 @@
     <t>com.zatribune.spring.ecommerce.orders.OrderApplication</t>
   </si>
   <si>
+    <t>OrderApplication()</t>
+  </si>
+  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
@@ -183,6 +195,9 @@
     <t>java.util.List</t>
   </si>
   <si>
+    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean)</t>
+  </si>
+  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -192,6 +207,12 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>kafkaStreamsFactory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -210,12 +231,6 @@
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>kafkaStreamsFactory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -282,28 +300,10 @@
     <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
   </si>
   <si>
-    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>OrderApplicationTests()</t>
-  </si>
-  <si>
-    <t>OrderServiceImpl()</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>KafkaConfig(com.zatribune.spring.ecommerce.orders.service.OrderService)</t>
-  </si>
-  <si>
-    <t>OrderApplication()</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -569,10 +569,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>10</v>
@@ -583,13 +583,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -597,13 +597,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -611,7 +611,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -625,13 +625,13 @@
         <v>26</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -639,13 +639,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -653,13 +653,13 @@
         <v>26</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -667,10 +667,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>10</v>
@@ -681,13 +681,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -695,7 +695,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
@@ -706,41 +706,41 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>10</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>12</v>
@@ -762,24 +762,24 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
@@ -790,52 +790,52 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
@@ -846,24 +846,24 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
@@ -877,13 +877,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -891,105 +891,105 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
@@ -1000,69 +1000,69 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>10</v>
@@ -1070,24 +1070,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
@@ -1098,27 +1098,27 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>42</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s" s="0">
         <v>10</v>
@@ -1126,41 +1126,41 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
         <v>10</v>
@@ -1168,41 +1168,41 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s" s="0">
         <v>10</v>
@@ -1210,66 +1210,66 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -1280,30 +1280,86 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
         <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1324,15 +1380,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -1340,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -1348,31 +1404,31 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,51 +1452,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1451,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1459,164 +1515,153 @@
         <v>26</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1634,13 +1679,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -1648,10 +1693,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
@@ -1662,16 +1707,30 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1692,94 +1751,94 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>4</v>
@@ -1800,19 +1859,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1830,19 +1889,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1860,19 +1919,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>68</v>
-      </c>
       <c r="E1" t="s" s="0">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1890,19 +1949,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1920,19 +1979,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1950,19 +2009,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-orders_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-orders_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="93">
   <si>
     <t>Class Name</t>
   </si>
@@ -207,16 +207,22 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.atomic.AtomicLong</t>
+  </si>
+  <si>
     <t>kafkaStreamsFactory</t>
   </si>
   <si>
     <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.atomic.AtomicLong</t>
+    <t>kafkaTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
     <t>log</t>
@@ -225,12 +231,6 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>kafkaTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>6</t>
@@ -1438,7 +1435,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1460,7 +1457,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>88</v>
@@ -1471,7 +1468,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>89</v>
@@ -1482,18 +1479,18 @@
         <v>53</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>83</v>
@@ -1501,46 +1498,46 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -1548,7 +1545,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>87</v>
@@ -1559,10 +1556,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -1570,10 +1567,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -1581,10 +1578,10 @@
         <v>32</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1592,10 +1589,10 @@
         <v>32</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -1603,64 +1600,20 @@
         <v>32</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s" s="0">
         <v>87</v>
       </c>
     </row>
@@ -1821,13 +1774,13 @@
         <v>32</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1835,13 +1788,13 @@
         <v>32</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-orders_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-orders_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="93">
   <si>
     <t>Class Name</t>
   </si>
@@ -186,16 +186,16 @@
     <t>com.zatribune.spring.ecommerce.orders.controller.OrderController</t>
   </si>
   <si>
+    <t>all()</t>
+  </si>
+  <si>
+    <t>java.util.List</t>
+  </si>
+  <si>
+    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean)</t>
+  </si>
+  <si>
     <t>create(domain.Order)</t>
-  </si>
-  <si>
-    <t>all()</t>
-  </si>
-  <si>
-    <t>java.util.List</t>
-  </si>
-  <si>
-    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean)</t>
   </si>
   <si>
     <t>Field Name</t>
@@ -1457,7 +1457,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>88</v>
@@ -1468,7 +1468,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>89</v>
@@ -1624,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1649,13 +1649,13 @@
         <v>53</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1663,13 +1663,13 @@
         <v>53</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1677,12 +1677,138 @@
         <v>53</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>10</v>
       </c>
     </row>

--- a/data/spring-kafka-microservices/ms-orders_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-orders_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="94">
   <si>
     <t>Class Name</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>12</t>
@@ -1482,7 +1485,7 @@
         <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -1559,7 +1562,7 @@
         <v>33</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -1581,7 +1584,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -1592,7 +1595,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -1603,7 +1606,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
